--- a/medicine/Enfance/Margaret_Mahy/Margaret_Mahy.xlsx
+++ b/medicine/Enfance/Margaret_Mahy/Margaret_Mahy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Margaret Mahy (née le 21 mars 1936 à Whakatane et morte le 23 juillet 2012 à Christchurch) est une femme de lettres néo-zélandaise, auteure de littérature d'enfance et de jeunesse. Elle a reçu en 1982 et 1984 la médaille Carnegie, et en 2006 le prix Hans Christian Andersen.
 </t>
@@ -511,7 +523,9 @@
           <t>Œuvres traduites</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Plus ils sont gros (The Boy Who was Followed Home, 1975), illustré par Steven Kellogg, Lotus, 1980.
 L'Enlèvement de la bibliothécaire (The Librarian and the Robbers, 1978), illustré par Quentin Blake, traduit par Marie-Raymond Farré, Gallimard Folio Cadet, 1983 ; Gallimard jeunesse, 2002.
@@ -548,11 +562,13 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Médaille Carnegie pour The Haunting en 1982.
 Médaille Carnegie pour The Changeover en 1984.
-(international) « Honour List » 1986[1] de l' IBBY, catégorie Auteur, pour The Changeover
+(international) « Honour List » 1986 de l' IBBY, catégorie Auteur, pour The Changeover
 Phoenix Award pour The Catalogue of the Universe en 2005.
 Prix Hans Christian Andersen, catégorie Écriture, en 2006.</t>
         </is>
